--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khadka.baniya\Desktop\Project\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khadka.baniya\Desktop\Project\redirection-mx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA0B0F0-23D5-4577-A9A9-E43DB407019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301245BA-2B60-4CCD-933F-2E7FBAABB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5E1E870-1F9B-4EDC-BA57-FC2A8FAC01B3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E5E1E870-1F9B-4EDC-BA57-FC2A8FAC01B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Source URL</t>
   </si>
@@ -44,22 +44,31 @@
     <t>Destination URL</t>
   </si>
   <si>
-    <t>Status Code</t>
-  </si>
-  <si>
-    <t>https://www.centrum.co.uk/</t>
-  </si>
-  <si>
-    <t>https://www.haleon.com/</t>
-  </si>
-  <si>
-    <t>https://www.centrum.com/en-us</t>
-  </si>
-  <si>
-    <t>https://www.centrum.com/fr-fr</t>
-  </si>
-  <si>
-    <t>https://www.haleonhealthpartner.com/en-us</t>
+    <t>www.centrum.co.uk/products/</t>
+  </si>
+  <si>
+    <t>www.oldcentrum.co.uk/products/</t>
+  </si>
+  <si>
+    <t>www.centrum.co.uk/about/</t>
+  </si>
+  <si>
+    <t>www.oldcentrum.co.uk/about/</t>
+  </si>
+  <si>
+    <t>www.haleon.com/</t>
+  </si>
+  <si>
+    <t>www.oldhaleon.com/</t>
+  </si>
+  <si>
+    <t>www.centrum.co.uk/</t>
+  </si>
+  <si>
+    <t>www.wikipedia.org/wiki/OpenAI?id=10</t>
+  </si>
+  <si>
+    <t>en.wikipedia.org/wiki/OpenAI?id=10</t>
   </si>
 </sst>
 </file>
@@ -448,76 +457,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617AC256-F36D-4C0D-A4FB-0E194CC6F3F4}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>301</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>301</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>301</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -529,8 +528,9 @@
     <hyperlink ref="B4" r:id="rId6" xr:uid="{7AFD8DB1-1370-42D2-A187-FB144B28B8D2}"/>
     <hyperlink ref="A5" r:id="rId7" xr:uid="{62AED826-D61D-42B2-9DB7-7236DF0A2CFF}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{4ECDBEA3-70D8-4EFE-864D-C6D2354C787A}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{A9633B37-1B42-4699-873F-0268348165B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khadka.baniya\Desktop\Project\redirection-mx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301245BA-2B60-4CCD-933F-2E7FBAABB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349DEF2-6482-4A1E-91FC-ADC4E25E335D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E5E1E870-1F9B-4EDC-BA57-FC2A8FAC01B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Source URL</t>
   </si>
@@ -44,31 +44,37 @@
     <t>Destination URL</t>
   </si>
   <si>
-    <t>www.centrum.co.uk/products/</t>
-  </si>
-  <si>
-    <t>www.oldcentrum.co.uk/products/</t>
-  </si>
-  <si>
-    <t>www.centrum.co.uk/about/</t>
-  </si>
-  <si>
-    <t>www.oldcentrum.co.uk/about/</t>
-  </si>
-  <si>
-    <t>www.haleon.com/</t>
-  </si>
-  <si>
-    <t>www.oldhaleon.com/</t>
-  </si>
-  <si>
-    <t>www.centrum.co.uk/</t>
-  </si>
-  <si>
-    <t>www.wikipedia.org/wiki/OpenAI?id=10</t>
-  </si>
-  <si>
-    <t>en.wikipedia.org/wiki/OpenAI?id=10</t>
+    <t>https://www.centrum.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.haleon.com/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/oldcentrum.co.uk/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/haleon.com/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/oldcentrum.co.uk/about/</t>
+  </si>
+  <si>
+    <t>https://www.centrum.co.uk/about/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/oldcentrum.co.uk/products/</t>
+  </si>
+  <si>
+    <t>https://www.centrum.co.uk/products/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/wikipedia.org/wiki/OpenAI?id=10</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OpenAI?id=10</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/</t>
   </si>
 </sst>
 </file>
@@ -113,12 +119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -457,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617AC256-F36D-4C0D-A4FB-0E194CC6F3F4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="51.90625" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,57 +483,68 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EC955C3B-8EBE-40A4-BB74-31148FAB8FC2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{BB483429-C9B9-422F-B2F8-5F2F52B2908A}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{30808E5C-3D97-4A1E-ADB1-1EB3A1772863}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{7DE1F5B2-A4A3-4B75-8043-6B100898EFFB}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{4ECDBEA3-70D8-4EFE-864D-C6D2354C787A}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{62AED826-D61D-42B2-9DB7-7236DF0A2CFF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7AFD8DB1-1370-42D2-A187-FB144B28B8D2}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{30808E5C-3D97-4A1E-ADB1-1EB3A1772863}"/>
     <hyperlink ref="B3" r:id="rId5" xr:uid="{CADA4247-1BFD-4444-8DD5-7A5D09A6ADD7}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{7AFD8DB1-1370-42D2-A187-FB144B28B8D2}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{62AED826-D61D-42B2-9DB7-7236DF0A2CFF}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{4ECDBEA3-70D8-4EFE-864D-C6D2354C787A}"/>
+    <hyperlink ref="A3" r:id="rId6" xr:uid="{BB483429-C9B9-422F-B2F8-5F2F52B2908A}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{7DE1F5B2-A4A3-4B75-8043-6B100898EFFB}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{EC955C3B-8EBE-40A4-BB74-31148FAB8FC2}"/>
     <hyperlink ref="A6" r:id="rId9" xr:uid="{A9633B37-1B42-4699-873F-0268348165B2}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{5C56A7A3-6002-4149-942E-C39408DD9249}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{C8994BEC-9997-4AA3-9DCC-1E42A7E4CAD4}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{1E4DDBD4-6683-44F1-9591-4406EC4EAF2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>